--- a/Data/Test MQ/DPV Analysis/Analysis Files/compiledAnalysis_1.xlsx
+++ b/Data/Test MQ/DPV Analysis/Analysis Files/compiledAnalysis_1.xlsx
@@ -493,7 +493,7 @@
         <v>-0.132</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.03257754578754578</v>
+        <v>-0.03276339063761098</v>
       </c>
     </row>
     <row r="3">
@@ -501,20 +501,20 @@
         <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.09232309523809527</v>
+        <v>-0.09232309523809526</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.09232309523809529</v>
+        <v>-0.09232309523809526</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.387778780781446e-17</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
         <v>-0.228</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.6880896959706964</v>
+        <v>-0.6889127231638422</v>
       </c>
     </row>
     <row r="4">
@@ -522,20 +522,20 @@
         <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.0946260952380953</v>
+        <v>-0.09462609523809531</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.09251814652014657</v>
+        <v>-0.09249159725585152</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.002107948717948727</v>
+        <v>-0.002134497982243799</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
         <v>-0.328</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.01362284249084254</v>
+        <v>-0.015109601291364</v>
       </c>
     </row>
     <row r="5">
@@ -546,17 +546,17 @@
         <v>-0.1025979523809525</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.09271319780219786</v>
+        <v>-0.09266009927360777</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.009884754578754623</v>
+        <v>-0.009937853107344713</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
         <v>-0.396</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.02471030402930405</v>
+        <v>-0.02512251629072684</v>
       </c>
     </row>
     <row r="6">
@@ -567,31 +567,39 @@
         <v>-0.1102676190476191</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.09290824908424913</v>
+        <v>-0.09282860129136403</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.01735936996337001</v>
-      </c>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
+        <v>-0.01743901775625512</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-0.01601244235588967</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.1149361904761905</v>
+        <v>-0.1149361904761906</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.09310330036630042</v>
+        <v>-0.09299710330912028</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.02183289010989012</v>
-      </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
+        <v>-0.02193908716707027</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-0.01389583458646615</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -601,10 +609,10 @@
         <v>-0.1169388095238096</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.09329835164835171</v>
+        <v>-0.09316560532687654</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.02364045787545786</v>
+        <v>-0.02377320419693305</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -618,10 +626,10 @@
         <v>-0.1230025714285715</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.09349340293040298</v>
+        <v>-0.09333410734463281</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.02950916849816849</v>
+        <v>-0.02966846408393868</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -635,10 +643,10 @@
         <v>-0.126266</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.09368845421245427</v>
+        <v>-0.09350260936238906</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.03257754578754578</v>
+        <v>-0.03276339063761098</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -652,10 +660,10 @@
         <v>-0.1249312380952382</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.09388350549450555</v>
+        <v>-0.09367111138014532</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.03104773260073262</v>
+        <v>-0.03126012671509286</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -669,10 +677,10 @@
         <v>-0.1299282380952382</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.09407855677655684</v>
+        <v>-0.09383961339790158</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.03584968131868134</v>
+        <v>-0.0360886246973366</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -686,10 +694,10 @@
         <v>-0.1387943809523811</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.09427360805860811</v>
+        <v>-0.09400811541565783</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.04452077289377294</v>
+        <v>-0.04478626553672323</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -703,10 +711,10 @@
         <v>-0.1509994761904763</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.0944686593406594</v>
+        <v>-0.09417661743341409</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.05653081684981687</v>
+        <v>-0.05682285875706218</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -720,10 +728,10 @@
         <v>-0.1648690476190477</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.09466371062271067</v>
+        <v>-0.09434511945117034</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.07020533699633702</v>
+        <v>-0.07052392816787732</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -737,10 +745,10 @@
         <v>-0.1777371904761905</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.09485876190476196</v>
+        <v>-0.0945136214689266</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.08287842857142856</v>
+        <v>-0.0832235690072639</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -754,10 +762,10 @@
         <v>-0.1898694761904762</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.09505381318681325</v>
+        <v>-0.09468212348668285</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.09481566300366298</v>
+        <v>-0.09518735270379337</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -771,10 +779,10 @@
         <v>-0.2091355714285715</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.09524886446886453</v>
+        <v>-0.09485062550443911</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.113886706959707</v>
+        <v>-0.1142849459241324</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -788,10 +796,10 @@
         <v>-0.2264651904761906</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.09544391575091581</v>
+        <v>-0.09501912752219537</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.1310212747252748</v>
+        <v>-0.1314460629539952</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -805,10 +813,10 @@
         <v>-0.2558013333333334</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.09563896703296709</v>
+        <v>-0.09518762953995162</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.1601623663003663</v>
+        <v>-0.1606137037933818</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -822,10 +830,10 @@
         <v>-0.2912649047619049</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.09583401831501837</v>
+        <v>-0.09535613155770788</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.1954308864468866</v>
+        <v>-0.195908773204197</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -839,10 +847,10 @@
         <v>-0.3283282380952383</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.09602906959706965</v>
+        <v>-0.09552463357546413</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2322991684981686</v>
+        <v>-0.2328036045197741</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -856,10 +864,10 @@
         <v>-0.3706545238095241</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.09622412087912094</v>
+        <v>-0.09569313559322039</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2744304029304032</v>
+        <v>-0.2749613882163037</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -873,10 +881,10 @@
         <v>-0.4151173333333337</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.09641917216117223</v>
+        <v>-0.09586163761097664</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3186981611721614</v>
+        <v>-0.319255695722357</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -890,10 +898,10 @@
         <v>-0.4572548571428574</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.0966142234432235</v>
+        <v>-0.0960301396287329</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.3606406336996338</v>
+        <v>-0.3612247175141245</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -907,10 +915,10 @@
         <v>-0.5047938571428574</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.09680927472527479</v>
+        <v>-0.09619864164648916</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.4079845824175826</v>
+        <v>-0.4085952154963682</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -924,10 +932,10 @@
         <v>-0.5566633809523811</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.09700432600732607</v>
+        <v>-0.09636714366424541</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.459659054945055</v>
+        <v>-0.4602962372881357</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -941,10 +949,10 @@
         <v>-0.598001285714286</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.09719937728937735</v>
+        <v>-0.09653564568200167</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.5008019084249087</v>
+        <v>-0.5014656400322843</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -955,13 +963,13 @@
         <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.6477351428571432</v>
+        <v>-0.6477351428571433</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.09739442857142863</v>
+        <v>-0.09670414769975794</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.5503407142857145</v>
+        <v>-0.5510309951573853</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -972,13 +980,13 @@
         <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.6919368095238099</v>
+        <v>-0.69193680952381</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.09758947985347992</v>
+        <v>-0.09687264971751419</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.59434732967033</v>
+        <v>-0.5950641598062958</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -992,10 +1000,10 @@
         <v>-0.7310049047619052</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.09778453113553119</v>
+        <v>-0.09704115173527045</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.633220373626374</v>
+        <v>-0.6339637530266347</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1006,13 +1014,13 @@
         <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.7614664285714291</v>
+        <v>-0.7614664285714292</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.09797958241758248</v>
+        <v>-0.0972096537530267</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.6634868461538466</v>
+        <v>-0.6642567748184025</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1026,10 +1034,10 @@
         <v>-0.7785931428571433</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.09817463369963376</v>
+        <v>-0.09737815577078296</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.6804185091575096</v>
+        <v>-0.6812149870863604</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1043,10 +1051,10 @@
         <v>-0.7864593809523814</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.09836968498168504</v>
+        <v>-0.09754665778853921</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.6880896959706964</v>
+        <v>-0.6889127231638422</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1060,10 +1068,10 @@
         <v>-0.7779920952380956</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.09856473626373632</v>
+        <v>-0.09771515980629547</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.6794273589743594</v>
+        <v>-0.6802769354318001</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1077,10 +1085,10 @@
         <v>-0.7553999523809527</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.09875978754578761</v>
+        <v>-0.09788366182405173</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.6566401648351651</v>
+        <v>-0.657516290556901</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1091,13 +1099,13 @@
         <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.715068047619048</v>
+        <v>-0.7150680476190479</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.09895483882783888</v>
+        <v>-0.09805216384180798</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.6161132087912091</v>
+        <v>-0.6170158837772399</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1111,10 +1119,10 @@
         <v>-0.6674000000000004</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.09914989010989017</v>
+        <v>-0.09822066585956424</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.5682501098901103</v>
+        <v>-0.5691793341404362</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1128,10 +1136,10 @@
         <v>-0.6067987619047623</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.09934494139194146</v>
+        <v>-0.09838916787732049</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.5074538205128208</v>
+        <v>-0.5084095940274418</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1142,13 +1150,13 @@
         <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.5475984761904765</v>
+        <v>-0.5475984761904766</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.09953999267399273</v>
+        <v>-0.09855766989507675</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.4480584835164838</v>
+        <v>-0.4490408062953999</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1162,10 +1170,10 @@
         <v>-0.4853967619047622</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.09973504395604402</v>
+        <v>-0.09872617191283301</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.3856617179487182</v>
+        <v>-0.3866705899919292</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1179,10 +1187,10 @@
         <v>-0.4329298571428574</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.0999300952380953</v>
+        <v>-0.09889467393058926</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.332999761904762</v>
+        <v>-0.3340351832122681</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1196,10 +1204,10 @@
         <v>-0.3833263333333335</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1001251465201466</v>
+        <v>-0.09906317594834552</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.283201186813187</v>
+        <v>-0.284263157384988</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1213,10 +1221,10 @@
         <v>-0.3345901904761907</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.1003201978021979</v>
+        <v>-0.09923167796610177</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.2342699926739928</v>
+        <v>-0.2353585125100889</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1230,10 +1238,10 @@
         <v>-0.2913933809523812</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.1005152490842492</v>
+        <v>-0.09940017998385803</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.190878131868132</v>
+        <v>-0.1919932009685231</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1247,10 +1255,10 @@
         <v>-0.2507305714285716</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1007103003663004</v>
+        <v>-0.09956868200161428</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1500202710622712</v>
+        <v>-0.1511618894269574</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1264,10 +1272,10 @@
         <v>-0.2201345238095239</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1009053516483517</v>
+        <v>-0.09973718401937054</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.1192291721611722</v>
+        <v>-0.1203973397901534</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1278,13 +1286,13 @@
         <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.1975348571428572</v>
+        <v>-0.1975348571428573</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.101100402930403</v>
+        <v>-0.0999056860371268</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.09643445421245424</v>
+        <v>-0.09762917110573047</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1298,10 +1306,10 @@
         <v>-0.1831366190476192</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1012954542124543</v>
+        <v>-0.1000741880548831</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.08184116483516489</v>
+        <v>-0.08306243099273611</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1315,10 +1323,10 @@
         <v>-0.1707364761904763</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1014905054945056</v>
+        <v>-0.1002426900726393</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.06924597069597072</v>
+        <v>-0.07049378611783699</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1332,10 +1340,10 @@
         <v>-0.159003380952381</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1016855567765568</v>
+        <v>-0.1004111920903956</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.05731782417582419</v>
+        <v>-0.05859218886198547</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1349,10 +1357,10 @@
         <v>-0.1470723333333335</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1018806080586081</v>
+        <v>-0.1005796941081518</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.04519172527472536</v>
+        <v>-0.04649263922518164</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1366,10 +1374,10 @@
         <v>-0.1286033333333334</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1020756593406594</v>
+        <v>-0.1007481961259081</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.02652767399267403</v>
+        <v>-0.02785513720742534</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1383,10 +1391,10 @@
         <v>-0.1153968095238097</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1022707106227107</v>
+        <v>-0.1009166981436643</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.01312609890109896</v>
+        <v>-0.01448011138014531</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1400,10 +1408,10 @@
         <v>-0.1061317142857144</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.102465761904762</v>
+        <v>-0.1010852001614206</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.003665952380952436</v>
+        <v>-0.005046514124293799</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1417,10 +1425,10 @@
         <v>-0.1073355714285716</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1026608131868132</v>
+        <v>-0.1012537021791769</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.004674758241758309</v>
+        <v>-0.006081869249394703</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1434,10 +1442,10 @@
         <v>-0.1124708571428573</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1028558644688645</v>
+        <v>-0.1014222041969331</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.009614992673992726</v>
+        <v>-0.01104865294592415</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1451,10 +1459,10 @@
         <v>-0.1160700000000001</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1030509157509158</v>
+        <v>-0.1015907062146894</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.01301908424908428</v>
+        <v>-0.01447929378531075</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1468,10 +1476,10 @@
         <v>-0.1168688095238096</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1032459670329671</v>
+        <v>-0.1017592082324456</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.01362284249084254</v>
+        <v>-0.015109601291364</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1485,10 +1493,10 @@
         <v>-0.1121298571428573</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.1034410183150184</v>
+        <v>-0.1019277102502019</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.008688838827838871</v>
+        <v>-0.01020214689265539</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1502,10 +1510,10 @@
         <v>-0.1027268571428572</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.1036360695970697</v>
+        <v>-0.1020962122679581</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.000909212454212438</v>
+        <v>-0.0006306448748990973</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1519,10 +1527,10 @@
         <v>-0.1022647142857144</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1038311208791209</v>
+        <v>-0.1022647142857144</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.001566406593406552</v>
+        <v>-1.387778780781446e-17</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1536,10 +1544,10 @@
         <v>-0.1043339523809525</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1040261721611722</v>
+        <v>-0.1025422080200502</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.0003077802197802293</v>
+        <v>-0.00179174436090225</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1553,10 +1561,10 @@
         <v>-0.1035374285714286</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1042212234432235</v>
+        <v>-0.1028197017543861</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.0006837948717949016</v>
+        <v>-0.0007177268170425605</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1570,10 +1578,10 @@
         <v>-0.114540380952381</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1044162747252748</v>
+        <v>-0.1030971954887219</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.01012410622710622</v>
+        <v>-0.01144318546365913</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1587,10 +1595,10 @@
         <v>-0.113075380952381</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1046113260073261</v>
+        <v>-0.1033746892230577</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.008464054945054922</v>
+        <v>-0.009700691729323266</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1604,10 +1612,10 @@
         <v>-0.1090719047619048</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1048063772893774</v>
+        <v>-0.1036521829573936</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.004265527472527425</v>
+        <v>-0.005419721804511224</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1621,10 +1629,10 @@
         <v>-0.1134692857142857</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.1050014285714286</v>
+        <v>-0.1039296766917294</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.00846785714285711</v>
+        <v>-0.00953960902255635</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1638,10 +1646,10 @@
         <v>-0.1069989047619048</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1051964798534799</v>
+        <v>-0.1042071704260652</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.001802424908424846</v>
+        <v>-0.002791734335839541</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1655,10 +1663,10 @@
         <v>-0.1060659523809524</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1053915311355312</v>
+        <v>-0.1044846641604011</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.000674421245421164</v>
+        <v>-0.0015812882205513</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1672,10 +1680,10 @@
         <v>-0.1110605714285715</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1055865824175825</v>
+        <v>-0.1047621578947369</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.005473989010988972</v>
+        <v>-0.006298413533834535</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1689,10 +1697,10 @@
         <v>-0.1145947142857143</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1057816336996338</v>
+        <v>-0.1050396516290727</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.008813080586080532</v>
+        <v>-0.00955506265664155</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1706,10 +1714,10 @@
         <v>-0.1209309047619048</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1059766849816851</v>
+        <v>-0.1053171453634086</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.01495421978021973</v>
+        <v>-0.0156137593984962</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1723,10 +1731,10 @@
         <v>-0.1270038571428572</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1061717362637363</v>
+        <v>-0.1055946390977444</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.02083212087912084</v>
+        <v>-0.02140921804511274</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1740,10 +1748,10 @@
         <v>-0.1273368095238096</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1063667875457876</v>
+        <v>-0.1058721328320803</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.02097002197802199</v>
+        <v>-0.02146467669172934</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1757,10 +1765,10 @@
         <v>-0.1312721428571429</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1065618388278389</v>
+        <v>-0.1061496265664161</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.02471030402930405</v>
+        <v>-0.02512251629072684</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1774,10 +1782,10 @@
         <v>-0.1242006666666668</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1067568901098902</v>
+        <v>-0.1064271203007519</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.01744377655677662</v>
+        <v>-0.01777354636591486</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1791,10 +1799,10 @@
         <v>-0.1217998571428573</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1069519413919415</v>
+        <v>-0.1067046140350878</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.01484791575091579</v>
+        <v>-0.0150952431077695</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1808,10 +1816,10 @@
         <v>-0.1168682857142858</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1071469926739927</v>
+        <v>-0.1069821077694236</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.009721293040293066</v>
+        <v>-0.009886177944862198</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1822,13 +1830,13 @@
         <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1111396666666668</v>
+        <v>-0.1111396666666667</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.107342043956044</v>
+        <v>-0.1072596015037594</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.003797622710622742</v>
+        <v>-0.003880065162907301</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1845,7 +1853,7 @@
         <v>-0.1075370952380953</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>1.387778780781446e-17</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1859,10 +1867,10 @@
         <v>-0.1138732857142858</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1138732857142858</v>
+        <v>-0.1099598258145364</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0</v>
+        <v>-0.003913459899749366</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1876,10 +1884,10 @@
         <v>-0.1208727142857143</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1208727142857143</v>
+        <v>-0.1123825563909775</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0</v>
+        <v>-0.008490157894736811</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1893,10 +1901,10 @@
         <v>-0.1289365238095238</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1289365238095238</v>
+        <v>-0.1148052869674186</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0</v>
+        <v>-0.01413123684210521</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1910,10 +1918,10 @@
         <v>-0.126399</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.126399</v>
+        <v>-0.1172280175438597</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0</v>
+        <v>-0.009170982456140314</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1927,10 +1935,10 @@
         <v>-0.1356631904761905</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1356631904761905</v>
+        <v>-0.1196507481203009</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0</v>
+        <v>-0.01601244235588967</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1944,10 +1952,10 @@
         <v>-0.1267978571428572</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1267978571428572</v>
+        <v>-0.122073478696742</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0</v>
+        <v>-0.004724378446115257</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1961,10 +1969,10 @@
         <v>-0.1287359523809525</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1287359523809525</v>
+        <v>-0.1244962092731831</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0</v>
+        <v>-0.004239743107769395</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1978,10 +1986,10 @@
         <v>-0.1341414761904763</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1341414761904763</v>
+        <v>-0.1269189398496242</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0</v>
+        <v>-0.007222536340852126</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1995,10 +2003,10 @@
         <v>-0.1320066190476192</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1320066190476192</v>
+        <v>-0.1293416704260653</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0</v>
+        <v>-0.00266494862155392</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2012,10 +2020,10 @@
         <v>-0.1322694761904763</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1322694761904763</v>
+        <v>-0.1317644010025064</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0</v>
+        <v>-0.0005050751879699111</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2029,10 +2037,10 @@
         <v>-0.1386025238095239</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1386025238095239</v>
+        <v>-0.1341871315789475</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0</v>
+        <v>-0.004415392230576409</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2046,10 +2054,10 @@
         <v>-0.1335329523809525</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1335329523809525</v>
+        <v>-0.1366098621553886</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>0.003076909774436143</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2063,10 +2071,10 @@
         <v>-0.1382611428571429</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1382611428571429</v>
+        <v>-0.1390325927318297</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0</v>
+        <v>0.0007714498746868026</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2080,10 +2088,10 @@
         <v>-0.1473279047619049</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1473279047619049</v>
+        <v>-0.1414553233082708</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0</v>
+        <v>-0.005872581453634035</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2097,10 +2105,10 @@
         <v>-0.152593761904762</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.152593761904762</v>
+        <v>-0.1438780538847119</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0</v>
+        <v>-0.008715708020050117</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2114,10 +2122,10 @@
         <v>-0.1601966190476192</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1601966190476192</v>
+        <v>-0.146300784461153</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0</v>
+        <v>-0.01389583458646615</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2131,10 +2139,10 @@
         <v>-0.1600658571428572</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1600658571428572</v>
+        <v>-0.1487235150375941</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>-0.01134234210526311</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2148,10 +2156,10 @@
         <v>-0.1562014761904763</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1562014761904763</v>
+        <v>-0.1511462456140352</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0</v>
+        <v>-0.005055230576441083</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2179,10 +2187,10 @@
         <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.158970404761905</v>
+        <v>-0.1589704047619051</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.158970404761905</v>
+        <v>-0.1589704047619051</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2196,10 +2204,10 @@
         <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.178239928571429</v>
+        <v>-0.1782399285714292</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.178239928571429</v>
+        <v>-0.1782399285714292</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2219,7 +2227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2248,7 +2256,7 @@
         <v>-0.132</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.03257754578754578</v>
+        <v>-0.03276339063761098</v>
       </c>
     </row>
     <row r="3">
@@ -2256,7 +2264,7 @@
         <v>-0.228</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.6880896959706964</v>
+        <v>-0.6889127231638422</v>
       </c>
     </row>
     <row r="4">
@@ -2264,7 +2272,7 @@
         <v>-0.328</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.01362284249084254</v>
+        <v>-0.015109601291364</v>
       </c>
     </row>
     <row r="5">
@@ -2272,7 +2280,23 @@
         <v>-0.396</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.02471030402930405</v>
+        <v>-0.02512251629072684</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>-0.01601244235588967</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>-0.01389583458646615</v>
       </c>
     </row>
   </sheetData>
